--- a/Data/TrafficVolume.xlsx
+++ b/Data/TrafficVolume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/ECON436_SalesTax/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/vscode/Python/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3448B4E2-2383-4EED-A885-9ACC2786D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A1F04B7-6AFC-40B9-9B80-651250202513}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3448B4E2-2383-4EED-A885-9ACC2786D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F205BC76-0A91-40B7-B255-26F7A234723B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E2AA3CAF-0B4E-49BD-B79F-75CDC687337D}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>COUNTSTATIONID</t>
-  </si>
-  <si>
-    <t>YEARAVG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Jan</t>
   </si>
@@ -548,9 +542,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -926,1149 +919,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5DFC20-C1A7-4063-9A09-F4D790002673}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>127</v>
+        <v>2024</v>
       </c>
       <c r="B2">
-        <v>2025</v>
+        <v>26168</v>
       </c>
       <c r="C2">
-        <v>26957</v>
+        <v>27477</v>
       </c>
       <c r="D2">
-        <v>28623</v>
-      </c>
-      <c r="E2" s="1">
-        <v>31075</v>
+        <v>29744</v>
+      </c>
+      <c r="E2">
+        <v>29996</v>
+      </c>
+      <c r="F2">
+        <v>32997</v>
+      </c>
+      <c r="G2">
+        <v>35407</v>
+      </c>
+      <c r="H2">
+        <v>38875</v>
+      </c>
+      <c r="I2">
+        <v>36381</v>
+      </c>
+      <c r="J2">
+        <v>33550</v>
+      </c>
+      <c r="K2">
+        <v>32153</v>
+      </c>
+      <c r="L2">
+        <v>29843</v>
+      </c>
+      <c r="M2">
+        <v>31088</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>127</v>
+        <v>2023</v>
       </c>
       <c r="B3">
-        <v>2024</v>
+        <v>25253</v>
       </c>
       <c r="C3">
-        <v>26168</v>
+        <v>27074</v>
       </c>
       <c r="D3">
-        <v>27477</v>
+        <v>28324</v>
       </c>
       <c r="E3">
-        <v>29744</v>
+        <v>29405</v>
       </c>
       <c r="F3">
-        <v>29996</v>
+        <v>33218</v>
       </c>
       <c r="G3">
-        <v>32997</v>
+        <v>36195</v>
       </c>
       <c r="H3">
-        <v>35407</v>
+        <v>39810</v>
       </c>
       <c r="I3">
-        <v>38875</v>
+        <v>36133</v>
       </c>
       <c r="J3">
-        <v>36381</v>
+        <v>34655</v>
       </c>
       <c r="K3">
-        <v>33550</v>
+        <v>31045</v>
       </c>
       <c r="L3">
-        <v>32153</v>
+        <v>29233</v>
       </c>
       <c r="M3">
-        <v>29843</v>
-      </c>
-      <c r="N3">
-        <v>31088</v>
+        <v>28477</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>127</v>
+        <v>2022</v>
       </c>
       <c r="B4">
-        <v>2023</v>
+        <v>25272</v>
       </c>
       <c r="C4">
-        <v>25253</v>
+        <v>26717</v>
       </c>
       <c r="D4">
-        <v>27074</v>
+        <v>28553</v>
       </c>
       <c r="E4">
-        <v>28324</v>
+        <v>29715</v>
       </c>
       <c r="F4">
-        <v>29405</v>
+        <v>32076</v>
       </c>
       <c r="G4">
-        <v>33218</v>
+        <v>35054</v>
       </c>
       <c r="H4">
-        <v>36195</v>
+        <v>37593</v>
       </c>
       <c r="I4">
-        <v>39810</v>
+        <v>36026</v>
       </c>
       <c r="J4">
-        <v>36133</v>
+        <v>33830</v>
       </c>
       <c r="K4">
-        <v>34655</v>
+        <v>32282</v>
       </c>
       <c r="L4">
-        <v>31045</v>
+        <v>29024</v>
       </c>
       <c r="M4">
-        <v>29233</v>
-      </c>
-      <c r="N4">
-        <v>28477</v>
+        <v>27549</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>127</v>
+        <v>2021</v>
       </c>
       <c r="B5">
-        <v>2022</v>
+        <v>25205</v>
       </c>
       <c r="C5">
-        <v>25272</v>
+        <v>24915</v>
       </c>
       <c r="D5">
-        <v>26717</v>
+        <v>28585</v>
       </c>
       <c r="E5">
-        <v>28553</v>
+        <v>30082</v>
       </c>
       <c r="F5">
-        <v>29715</v>
+        <v>32728</v>
       </c>
       <c r="G5">
-        <v>32076</v>
+        <v>36942</v>
       </c>
       <c r="H5">
-        <v>35054</v>
+        <v>38949</v>
       </c>
       <c r="I5">
-        <v>37593</v>
+        <v>35616</v>
       </c>
       <c r="J5">
-        <v>36026</v>
+        <v>33470</v>
       </c>
       <c r="K5">
-        <v>33830</v>
+        <v>31525</v>
       </c>
       <c r="L5">
-        <v>32282</v>
+        <v>29798</v>
       </c>
       <c r="M5">
-        <v>29024</v>
-      </c>
-      <c r="N5">
-        <v>27549</v>
+        <v>27635</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>127</v>
+        <v>2020</v>
       </c>
       <c r="B6">
-        <v>2021</v>
+        <v>27846</v>
       </c>
       <c r="C6">
-        <v>25205</v>
+        <v>27091</v>
       </c>
       <c r="D6">
-        <v>24915</v>
+        <v>23951</v>
       </c>
       <c r="E6">
-        <v>28585</v>
+        <v>18284</v>
       </c>
       <c r="F6">
-        <v>30082</v>
+        <v>25711</v>
       </c>
       <c r="G6">
-        <v>32728</v>
+        <v>31685</v>
       </c>
       <c r="H6">
-        <v>36942</v>
+        <v>33307</v>
       </c>
       <c r="I6">
-        <v>38949</v>
+        <v>33160</v>
       </c>
       <c r="J6">
-        <v>35616</v>
+        <v>31896</v>
       </c>
       <c r="K6">
-        <v>33470</v>
+        <v>30180</v>
       </c>
       <c r="L6">
-        <v>31525</v>
+        <v>26297</v>
       </c>
       <c r="M6">
-        <v>29798</v>
-      </c>
-      <c r="N6">
-        <v>27635</v>
+        <v>25409</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>127</v>
+        <v>2019</v>
       </c>
       <c r="B7">
-        <v>2020</v>
+        <v>28770</v>
       </c>
       <c r="C7">
-        <v>27846</v>
+        <v>28651</v>
       </c>
       <c r="D7">
-        <v>27091</v>
+        <v>30959</v>
       </c>
       <c r="E7">
-        <v>23951</v>
+        <v>31303</v>
       </c>
       <c r="F7">
-        <v>18284</v>
+        <v>32470</v>
       </c>
       <c r="G7">
-        <v>25711</v>
+        <v>35073</v>
       </c>
       <c r="H7">
-        <v>31685</v>
+        <v>38468</v>
       </c>
       <c r="I7">
-        <v>33307</v>
+        <v>36482</v>
       </c>
       <c r="J7">
-        <v>33160</v>
+        <v>33984</v>
       </c>
       <c r="K7">
-        <v>31896</v>
+        <v>32314</v>
       </c>
       <c r="L7">
-        <v>30180</v>
+        <v>29038</v>
       </c>
       <c r="M7">
-        <v>26297</v>
-      </c>
-      <c r="N7">
-        <v>25409</v>
+        <v>28750</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>127</v>
+        <v>2018</v>
       </c>
       <c r="B8">
-        <v>2019</v>
+        <v>28368</v>
       </c>
       <c r="C8">
-        <v>28770</v>
+        <v>28130</v>
       </c>
       <c r="D8">
-        <v>28651</v>
+        <v>31092</v>
       </c>
       <c r="E8">
-        <v>30959</v>
+        <v>32907</v>
       </c>
       <c r="F8">
-        <v>31303</v>
+        <v>35280</v>
       </c>
       <c r="G8">
-        <v>32470</v>
+        <v>38235</v>
       </c>
       <c r="H8">
-        <v>35073</v>
+        <v>40860</v>
       </c>
       <c r="I8">
-        <v>38468</v>
+        <v>38826</v>
       </c>
       <c r="J8">
-        <v>36482</v>
+        <v>36472</v>
       </c>
       <c r="K8">
-        <v>33984</v>
+        <v>34226</v>
       </c>
       <c r="L8">
-        <v>32314</v>
+        <v>31841</v>
       </c>
       <c r="M8">
-        <v>29038</v>
-      </c>
-      <c r="N8">
-        <v>28750</v>
+        <v>30498</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>127</v>
+        <v>2017</v>
       </c>
       <c r="B9">
-        <v>2018</v>
+        <v>24728</v>
       </c>
       <c r="C9">
-        <v>28368</v>
+        <v>27138</v>
       </c>
       <c r="D9">
-        <v>28130</v>
+        <v>30245</v>
       </c>
       <c r="E9">
-        <v>31092</v>
+        <v>29548</v>
       </c>
       <c r="F9">
-        <v>32907</v>
+        <v>34258</v>
       </c>
       <c r="G9">
-        <v>35280</v>
+        <v>37604</v>
       </c>
       <c r="H9">
-        <v>38235</v>
+        <v>40109</v>
       </c>
       <c r="I9">
-        <v>40860</v>
+        <v>39577</v>
       </c>
       <c r="J9">
-        <v>38826</v>
+        <v>34587</v>
       </c>
       <c r="K9">
-        <v>36472</v>
+        <v>32807</v>
       </c>
       <c r="L9">
-        <v>34226</v>
+        <v>31038</v>
       </c>
       <c r="M9">
-        <v>31841</v>
-      </c>
-      <c r="N9">
-        <v>30498</v>
+        <v>29174</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>127</v>
+        <v>2016</v>
       </c>
       <c r="B10">
-        <v>2017</v>
+        <v>25921</v>
       </c>
       <c r="C10">
-        <v>24728</v>
+        <v>26500</v>
       </c>
       <c r="D10">
-        <v>27138</v>
+        <v>27564</v>
       </c>
       <c r="E10">
-        <v>30245</v>
+        <v>28445</v>
       </c>
       <c r="F10">
-        <v>29548</v>
+        <v>32442</v>
       </c>
       <c r="G10">
-        <v>34258</v>
+        <v>35471</v>
       </c>
       <c r="H10">
-        <v>37604</v>
+        <v>36593</v>
       </c>
       <c r="I10">
-        <v>40109</v>
+        <v>32709</v>
       </c>
       <c r="J10">
-        <v>39577</v>
+        <v>32957</v>
       </c>
       <c r="K10">
-        <v>34587</v>
+        <v>31356</v>
       </c>
       <c r="L10">
-        <v>32807</v>
+        <v>29317</v>
       </c>
       <c r="M10">
-        <v>31038</v>
-      </c>
-      <c r="N10">
-        <v>29174</v>
+        <v>27530</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>127</v>
+        <v>2015</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>25330</v>
       </c>
       <c r="C11">
-        <v>25921</v>
+        <v>24854</v>
       </c>
       <c r="D11">
-        <v>26500</v>
+        <v>28235</v>
       </c>
       <c r="E11">
-        <v>27564</v>
+        <v>28564</v>
       </c>
       <c r="F11">
-        <v>28445</v>
+        <v>30193</v>
       </c>
       <c r="G11">
-        <v>32442</v>
+        <v>34122</v>
       </c>
       <c r="H11">
-        <v>35471</v>
+        <v>37660</v>
       </c>
       <c r="I11">
-        <v>36593</v>
+        <v>35171</v>
       </c>
       <c r="J11">
-        <v>32709</v>
+        <v>32665</v>
       </c>
       <c r="K11">
-        <v>32957</v>
+        <v>31179</v>
       </c>
       <c r="L11">
-        <v>31356</v>
+        <v>27568</v>
       </c>
       <c r="M11">
-        <v>29317</v>
-      </c>
-      <c r="N11">
-        <v>27530</v>
+        <v>26398</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>127</v>
+        <v>2014</v>
       </c>
       <c r="B12">
-        <v>2015</v>
+        <v>22779</v>
       </c>
       <c r="C12">
-        <v>25330</v>
+        <v>23221</v>
       </c>
       <c r="D12">
-        <v>24854</v>
+        <v>25616</v>
       </c>
       <c r="E12">
-        <v>28235</v>
+        <v>26921</v>
       </c>
       <c r="F12">
-        <v>28564</v>
+        <v>29762</v>
       </c>
       <c r="G12">
-        <v>30193</v>
+        <v>32432</v>
       </c>
       <c r="H12">
-        <v>34122</v>
+        <v>32049</v>
       </c>
       <c r="I12">
-        <v>37660</v>
+        <v>30459</v>
       </c>
       <c r="J12">
-        <v>35171</v>
+        <v>29598</v>
       </c>
       <c r="K12">
-        <v>32665</v>
+        <v>28850</v>
       </c>
       <c r="L12">
-        <v>31179</v>
+        <v>25849</v>
       </c>
       <c r="M12">
-        <v>27568</v>
-      </c>
-      <c r="N12">
-        <v>26398</v>
+        <v>25809</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>127</v>
+        <v>2013</v>
       </c>
       <c r="B13">
-        <v>2014</v>
+        <v>22823</v>
       </c>
       <c r="C13">
-        <v>22779</v>
+        <v>22742</v>
       </c>
       <c r="D13">
-        <v>23221</v>
+        <v>24777</v>
       </c>
       <c r="E13">
-        <v>25616</v>
+        <v>23559</v>
       </c>
       <c r="F13">
-        <v>26921</v>
+        <v>28296</v>
       </c>
       <c r="G13">
-        <v>29762</v>
+        <v>30845</v>
       </c>
       <c r="H13">
-        <v>32432</v>
+        <v>32985</v>
       </c>
       <c r="I13">
-        <v>32049</v>
+        <v>31120</v>
       </c>
       <c r="J13">
-        <v>30459</v>
+        <v>26880</v>
       </c>
       <c r="K13">
-        <v>29598</v>
+        <v>26457</v>
       </c>
       <c r="L13">
-        <v>28850</v>
+        <v>25363</v>
       </c>
       <c r="M13">
-        <v>25849</v>
-      </c>
-      <c r="N13">
-        <v>25809</v>
+        <v>24030</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>127</v>
+        <v>2012</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>21994</v>
       </c>
       <c r="C14">
-        <v>22823</v>
+        <v>21723</v>
       </c>
       <c r="D14">
-        <v>22742</v>
+        <v>24975</v>
       </c>
       <c r="E14">
-        <v>24777</v>
+        <v>25332</v>
       </c>
       <c r="F14">
-        <v>23559</v>
+        <v>27785</v>
       </c>
       <c r="G14">
-        <v>28296</v>
+        <v>30536</v>
       </c>
       <c r="H14">
-        <v>30845</v>
+        <v>32423</v>
       </c>
       <c r="I14">
-        <v>32985</v>
+        <v>31054</v>
       </c>
       <c r="J14">
-        <v>31120</v>
+        <v>27865</v>
       </c>
       <c r="K14">
-        <v>26880</v>
+        <v>25791</v>
       </c>
       <c r="L14">
-        <v>26457</v>
+        <v>25139</v>
       </c>
       <c r="M14">
-        <v>25363</v>
-      </c>
-      <c r="N14">
-        <v>24030</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>127</v>
-      </c>
-      <c r="B15">
-        <v>2012</v>
-      </c>
-      <c r="C15">
-        <v>21994</v>
-      </c>
-      <c r="D15">
-        <v>21723</v>
-      </c>
-      <c r="E15">
-        <v>24975</v>
-      </c>
-      <c r="F15">
-        <v>25332</v>
-      </c>
-      <c r="G15">
-        <v>27785</v>
-      </c>
-      <c r="H15">
-        <v>30536</v>
-      </c>
-      <c r="I15">
-        <v>32423</v>
-      </c>
-      <c r="J15">
-        <v>31054</v>
-      </c>
-      <c r="K15">
-        <v>27865</v>
-      </c>
-      <c r="L15">
-        <v>25791</v>
-      </c>
-      <c r="M15">
-        <v>25139</v>
-      </c>
-      <c r="N15">
         <v>23574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>127</v>
-      </c>
-      <c r="B16">
-        <v>2011</v>
-      </c>
-      <c r="C16">
-        <v>21315</v>
-      </c>
-      <c r="D16">
-        <v>21590</v>
-      </c>
-      <c r="E16">
-        <v>23786</v>
-      </c>
-      <c r="F16">
-        <v>24575</v>
-      </c>
-      <c r="G16">
-        <v>26286</v>
-      </c>
-      <c r="H16">
-        <v>30170</v>
-      </c>
-      <c r="I16">
-        <v>32396</v>
-      </c>
-      <c r="J16">
-        <v>27109</v>
-      </c>
-      <c r="K16">
-        <v>27987</v>
-      </c>
-      <c r="L16">
-        <v>25298</v>
-      </c>
-      <c r="M16">
-        <v>23921</v>
-      </c>
-      <c r="N16">
-        <v>23023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>127</v>
-      </c>
-      <c r="B17">
-        <v>2010</v>
-      </c>
-      <c r="C17">
-        <v>21006</v>
-      </c>
-      <c r="D17">
-        <v>21078</v>
-      </c>
-      <c r="E17">
-        <v>22800</v>
-      </c>
-      <c r="F17">
-        <v>23817</v>
-      </c>
-      <c r="G17">
-        <v>26010</v>
-      </c>
-      <c r="H17">
-        <v>28254</v>
-      </c>
-      <c r="J17">
-        <v>30608</v>
-      </c>
-      <c r="K17">
-        <v>28034</v>
-      </c>
-      <c r="L17">
-        <v>26004</v>
-      </c>
-      <c r="M17">
-        <v>23792</v>
-      </c>
-      <c r="N17">
-        <v>22793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>127</v>
-      </c>
-      <c r="B18">
-        <v>2009</v>
-      </c>
-      <c r="C18">
-        <v>20290</v>
-      </c>
-      <c r="D18">
-        <v>21381</v>
-      </c>
-      <c r="E18">
-        <v>21562</v>
-      </c>
-      <c r="F18">
-        <v>21984</v>
-      </c>
-      <c r="G18">
-        <v>26068</v>
-      </c>
-      <c r="H18">
-        <v>28301</v>
-      </c>
-      <c r="I18">
-        <v>31876</v>
-      </c>
-      <c r="J18">
-        <v>29638</v>
-      </c>
-      <c r="K18">
-        <v>25850</v>
-      </c>
-      <c r="L18">
-        <v>22208</v>
-      </c>
-      <c r="M18">
-        <v>23141</v>
-      </c>
-      <c r="N18">
-        <v>21230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>127</v>
-      </c>
-      <c r="B19">
-        <v>2008</v>
-      </c>
-      <c r="C19">
-        <v>20184</v>
-      </c>
-      <c r="D19">
-        <v>21013</v>
-      </c>
-      <c r="E19">
-        <v>22542</v>
-      </c>
-      <c r="F19">
-        <v>22710</v>
-      </c>
-      <c r="G19">
-        <v>24675</v>
-      </c>
-      <c r="H19">
-        <v>26631</v>
-      </c>
-      <c r="I19">
-        <v>28460</v>
-      </c>
-      <c r="J19">
-        <v>26786</v>
-      </c>
-      <c r="K19">
-        <v>24460</v>
-      </c>
-      <c r="L19">
-        <v>23540</v>
-      </c>
-      <c r="M19">
-        <v>22359</v>
-      </c>
-      <c r="N19">
-        <v>21160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>127</v>
-      </c>
-      <c r="B20">
-        <v>2007</v>
-      </c>
-      <c r="C20">
-        <v>19677</v>
-      </c>
-      <c r="D20">
-        <v>20725</v>
-      </c>
-      <c r="E20">
-        <v>22972</v>
-      </c>
-      <c r="F20">
-        <v>23556</v>
-      </c>
-      <c r="G20">
-        <v>25582</v>
-      </c>
-      <c r="H20">
-        <v>28174</v>
-      </c>
-      <c r="I20">
-        <v>30607</v>
-      </c>
-      <c r="J20">
-        <v>28960</v>
-      </c>
-      <c r="K20">
-        <v>26004</v>
-      </c>
-      <c r="L20">
-        <v>24764</v>
-      </c>
-      <c r="M20">
-        <v>23441</v>
-      </c>
-      <c r="N20">
-        <v>19884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>127</v>
-      </c>
-      <c r="B21">
-        <v>2006</v>
-      </c>
-      <c r="C21">
-        <v>19054</v>
-      </c>
-      <c r="D21">
-        <v>19910</v>
-      </c>
-      <c r="E21">
-        <v>21535</v>
-      </c>
-      <c r="F21">
-        <v>21564</v>
-      </c>
-      <c r="G21">
-        <v>22978</v>
-      </c>
-      <c r="H21">
-        <v>24545</v>
-      </c>
-      <c r="I21">
-        <v>29319</v>
-      </c>
-      <c r="J21">
-        <v>27366</v>
-      </c>
-      <c r="K21">
-        <v>24733</v>
-      </c>
-      <c r="L21">
-        <v>23127</v>
-      </c>
-      <c r="M21">
-        <v>22662</v>
-      </c>
-      <c r="N21">
-        <v>20952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>127</v>
-      </c>
-      <c r="B22">
-        <v>2005</v>
-      </c>
-      <c r="C22">
-        <v>19213</v>
-      </c>
-      <c r="D22">
-        <v>20159</v>
-      </c>
-      <c r="E22">
-        <v>21719</v>
-      </c>
-      <c r="F22">
-        <v>21551</v>
-      </c>
-      <c r="G22">
-        <v>24220</v>
-      </c>
-      <c r="H22">
-        <v>26280</v>
-      </c>
-      <c r="I22">
-        <v>29835</v>
-      </c>
-      <c r="J22">
-        <v>26082</v>
-      </c>
-      <c r="K22">
-        <v>23656</v>
-      </c>
-      <c r="L22">
-        <v>22146</v>
-      </c>
-      <c r="M22">
-        <v>21103</v>
-      </c>
-      <c r="N22">
-        <v>19216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>127</v>
-      </c>
-      <c r="B23">
-        <v>2004</v>
-      </c>
-      <c r="C23">
-        <v>19125</v>
-      </c>
-      <c r="D23">
-        <v>19074</v>
-      </c>
-      <c r="E23">
-        <v>21974</v>
-      </c>
-      <c r="F23">
-        <v>22013</v>
-      </c>
-      <c r="G23">
-        <v>23897</v>
-      </c>
-      <c r="H23">
-        <v>26002</v>
-      </c>
-      <c r="I23">
-        <v>29582</v>
-      </c>
-      <c r="J23">
-        <v>27737</v>
-      </c>
-      <c r="K23">
-        <v>24432</v>
-      </c>
-      <c r="L23">
-        <v>21916</v>
-      </c>
-      <c r="M23">
-        <v>19093</v>
-      </c>
-      <c r="N23">
-        <v>20919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>127</v>
-      </c>
-      <c r="B24">
-        <v>2003</v>
-      </c>
-      <c r="C24">
-        <v>19332</v>
-      </c>
-      <c r="D24">
-        <v>17922</v>
-      </c>
-      <c r="E24">
-        <v>17301</v>
-      </c>
-      <c r="F24">
-        <v>20732</v>
-      </c>
-      <c r="G24">
-        <v>23649</v>
-      </c>
-      <c r="H24">
-        <v>26064</v>
-      </c>
-      <c r="I24">
-        <v>27918</v>
-      </c>
-      <c r="J24">
-        <v>26764</v>
-      </c>
-      <c r="K24">
-        <v>23482</v>
-      </c>
-      <c r="L24">
-        <v>22201</v>
-      </c>
-      <c r="M24">
-        <v>20203</v>
-      </c>
-      <c r="N24">
-        <v>20278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>127</v>
-      </c>
-      <c r="B25">
-        <v>2002</v>
-      </c>
-      <c r="C25">
-        <v>17215</v>
-      </c>
-      <c r="D25">
-        <v>17720</v>
-      </c>
-      <c r="E25">
-        <v>18918</v>
-      </c>
-      <c r="F25">
-        <v>19761</v>
-      </c>
-      <c r="G25">
-        <v>22095</v>
-      </c>
-      <c r="H25">
-        <v>25692</v>
-      </c>
-      <c r="I25">
-        <v>27274</v>
-      </c>
-      <c r="J25">
-        <v>26252</v>
-      </c>
-      <c r="K25">
-        <v>22507</v>
-      </c>
-      <c r="L25">
-        <v>20409</v>
-      </c>
-      <c r="M25">
-        <v>19505</v>
-      </c>
-      <c r="N25">
-        <v>19522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>127</v>
-      </c>
-      <c r="B26">
-        <v>2001</v>
-      </c>
-      <c r="C26">
-        <v>15681</v>
-      </c>
-      <c r="D26">
-        <v>15863</v>
-      </c>
-      <c r="E26">
-        <v>17239</v>
-      </c>
-      <c r="F26">
-        <v>18508</v>
-      </c>
-      <c r="G26">
-        <v>20748</v>
-      </c>
-      <c r="H26">
-        <v>23427</v>
-      </c>
-      <c r="I26">
-        <v>26098</v>
-      </c>
-      <c r="J26">
-        <v>25347</v>
-      </c>
-      <c r="K26">
-        <v>21470</v>
-      </c>
-      <c r="L26">
-        <v>19986</v>
-      </c>
-      <c r="M26">
-        <v>19639</v>
-      </c>
-      <c r="N26">
-        <v>18690</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>127</v>
-      </c>
-      <c r="B27">
-        <v>2000</v>
-      </c>
-      <c r="K27">
-        <v>21012</v>
-      </c>
-      <c r="L27">
-        <v>17906</v>
-      </c>
-      <c r="M27">
-        <v>17095</v>
-      </c>
-      <c r="N27">
-        <v>16271</v>
       </c>
     </row>
   </sheetData>
